--- a/datasets_methods_summary.xlsx
+++ b/datasets_methods_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Technion\SPIRAL_for_paper_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itama\Hadas\SPIRAL_for_paper_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0029213-7B71-4DF6-B096-0CD931DFD448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C158B84-FA5F-4CB1-93BF-792CF567B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79A09DB8-271D-4469-B936-E8B5F7D17699}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79A09DB8-271D-4469-B936-E8B5F7D17699}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>data</t>
   </si>
@@ -131,25 +131,34 @@
     <t>model, n_neighbors</t>
   </si>
   <si>
-    <t>error (Killed)</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>61-80</t>
-  </si>
-  <si>
-    <t>ST (chosen for paper: 66: mouse brain with Alzheimer- AD_18__N04_D1)</t>
-  </si>
-  <si>
-    <t>Slide-seqV2- diabetic kidney mouse (not in paper)</t>
-  </si>
-  <si>
-    <t>Slide-seqV2- normal kidney mouse (not in paper)</t>
-  </si>
-  <si>
-    <t>Slide-seqV2- normal kidney human (not in paper)</t>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Fig. 3</t>
+  </si>
+  <si>
+    <t>Fig. 5</t>
+  </si>
+  <si>
+    <t>Fig. 4</t>
+  </si>
+  <si>
+    <t>Supp. Fig. 2</t>
+  </si>
+  <si>
+    <t>Fig.7</t>
+  </si>
+  <si>
+    <t>Supp. Fig. 3</t>
+  </si>
+  <si>
+    <t>Fig. 2</t>
+  </si>
+  <si>
+    <t>Fig. 6</t>
+  </si>
+  <si>
+    <t>ST-  mouse brain with Alzheimer- AD_18__N04_D1</t>
   </si>
 </sst>
 </file>
@@ -240,139 +249,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -432,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -472,7 +363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -578,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -720,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,75 +619,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FFA6BA-4BC3-41E4-B36C-AC2F8AB0EB9B}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="64.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
@@ -807,45 +701,48 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -853,57 +750,63 @@
       <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -912,45 +815,48 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -958,22 +864,25 @@
       <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -982,31 +891,34 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1017,206 +929,100 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>66</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:K7 K8:L12 I14:K14 D8:I12">
-    <cfRule type="containsText" dxfId="15" priority="83" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",D2)))</formula>
+  <conditionalFormatting sqref="E2:L7 J11:L11 E8:M9">
+    <cfRule type="containsText" dxfId="3" priority="83" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="84" operator="containsText" text="V">
-      <formula>NOT(ISERROR(SEARCH("V",D2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="84" operator="containsText" text="V">
+      <formula>NOT(ISERROR(SEARCH("V",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="containsText" dxfId="13" priority="79" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",F14)))</formula>
+  <conditionalFormatting sqref="G11:G12">
+    <cfRule type="containsText" dxfId="1" priority="79" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="80" operator="containsText" text="V">
-      <formula>NOT(ISERROR(SEARCH("V",F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J12">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="26" operator="containsText" text="V">
-      <formula>NOT(ISERROR(SEARCH("V",J8)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="80" operator="containsText" text="V">
+      <formula>NOT(ISERROR(SEARCH("V",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
